--- a/Test Data/TC_41_Verify_Other_Slot_Cards_Grid.xlsx
+++ b/Test Data/TC_41_Verify_Other_Slot_Cards_Grid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE833BE9-C533-4C88-B62A-82AAAC918DEE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8406CAF6-95D7-414B-B082-0119BF94E594}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
   <si>
     <t>Color Codes</t>
   </si>
@@ -573,7 +573,7 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -835,11 +835,11 @@
       <c r="K10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="L10" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="M10" s="13" t="s">
-        <v>22</v>
+      <c r="L10" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" s="13" t="b">
+        <v>0</v>
       </c>
       <c r="N10" s="13" t="s">
         <v>33</v>
@@ -888,11 +888,11 @@
       <c r="K11" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="L11" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="M11" s="13" t="s">
-        <v>22</v>
+      <c r="L11" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" s="13" t="b">
+        <v>0</v>
       </c>
       <c r="N11" s="13" t="s">
         <v>34</v>
